--- a/i_codebooks/D3_bleeding_events.xlsx
+++ b/i_codebooks/D3_bleeding_events.xlsx
@@ -128,22 +128,22 @@
     <t>person_id date event</t>
   </si>
   <si>
-    <t>occurrence of bleeding (both narrow and broad) during the study period to persons treated with the medicines of interest</t>
-  </si>
-  <si>
     <t>a person in treated with the medicines of interest</t>
   </si>
   <si>
-    <t>as many as the episodes of bleeding narrow or broad during the study period</t>
-  </si>
-  <si>
-    <t>D3_persons_with_MoI</t>
-  </si>
-  <si>
     <t>NxUoO</t>
   </si>
   <si>
     <t>&gt;= 0</t>
+  </si>
+  <si>
+    <t>D4_persons_with_MoI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occurrence of bleeding (both narrow and possible) since 2015 to persons treated with the MoI during the study period. If a bleeding is both narrow and possible, it is set to narrow. If a bleeding follows a previous bleeding by less than 30 days, it is discarded </t>
+  </si>
+  <si>
+    <t>as many as the episodes of bleeding narrow or possible since 2015, separated by at least 30 days</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,12 +714,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -743,15 +743,15 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -929,6 +929,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1173,18 +1185,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1195,6 +1195,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1213,23 +1230,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
